--- a/Assignment/module 3/assignmentmod3.xlsx
+++ b/Assignment/module 3/assignmentmod3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\liveapptestingassig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Software Testing\Assignment\module 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4080" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4080"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
@@ -4919,8 +4919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6513,8 +6513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I213"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+    <sheetView topLeftCell="B212" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183:I213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13176,7 +13176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
